--- a/LR3/table_1_67.xlsx
+++ b/LR3/table_1_67.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="table_1_67" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -27,33 +27,12 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
-    <t>Площадь кв.м</t>
-  </si>
-  <si>
-    <t>Тариф руб./кв.м</t>
-  </si>
-  <si>
-    <t>Сумма руб.</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка дней</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t xml:space="preserve">Алишеров </t>
   </si>
   <si>
@@ -172,6 +151,27 @@
   </si>
   <si>
     <t>макс. сумма к оплате</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -999,9 +999,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -1016,31 +1022,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1048,15 +1054,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>70</v>
       </c>
       <c r="D3">
+        <f>A1*1.1</f>
         <v>73.7</v>
       </c>
       <c r="E3">
+        <f>C3*D3</f>
         <v>5159</v>
       </c>
       <c r="F3" s="1">
@@ -1066,15 +1074,18 @@
         <v>44805</v>
       </c>
       <c r="H3">
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
       <c r="J3">
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3">
+        <f>E3+J3</f>
         <v>5159</v>
       </c>
     </row>
@@ -1083,16 +1094,18 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4">
         <v>73.7</v>
       </c>
       <c r="E4">
-        <v>5122.1499999999996</v>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <v>5122.1500000000005</v>
       </c>
       <c r="F4" s="1">
         <v>44813</v>
@@ -1101,16 +1114,19 @@
         <v>44806</v>
       </c>
       <c r="H4">
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4">
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <v>5122.1499999999996</v>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <v>5122.1500000000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1118,15 +1134,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5">
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5">
         <v>73.7</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
         <v>5085.3</v>
       </c>
       <c r="F5" s="1">
@@ -1136,15 +1154,18 @@
         <v>44807</v>
       </c>
       <c r="H5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5">
+        <f t="shared" si="3"/>
         <v>5085.3</v>
       </c>
     </row>
@@ -1153,15 +1174,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6">
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6">
         <v>73.7</v>
       </c>
       <c r="E6">
+        <f t="shared" si="0"/>
         <v>5048.45</v>
       </c>
       <c r="F6" s="1">
@@ -1171,15 +1194,18 @@
         <v>44808</v>
       </c>
       <c r="H6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
+        <f t="shared" si="3"/>
         <v>5048.45</v>
       </c>
     </row>
@@ -1188,15 +1214,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7">
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7">
         <v>73.7</v>
       </c>
       <c r="E7">
+        <f t="shared" si="0"/>
         <v>5011.6000000000004</v>
       </c>
       <c r="F7" s="1">
@@ -1206,15 +1234,18 @@
         <v>44809</v>
       </c>
       <c r="H7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7">
         <v>10</v>
       </c>
       <c r="J7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
+        <f t="shared" si="3"/>
         <v>5011.6000000000004</v>
       </c>
     </row>
@@ -1223,15 +1254,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C8">
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8">
         <v>73.7</v>
       </c>
       <c r="E8">
+        <f t="shared" si="0"/>
         <v>4974.75</v>
       </c>
       <c r="F8" s="1">
@@ -1241,15 +1274,18 @@
         <v>44810</v>
       </c>
       <c r="H8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
+        <f t="shared" si="3"/>
         <v>4974.75</v>
       </c>
     </row>
@@ -1258,16 +1294,18 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9">
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9">
         <v>73.7</v>
       </c>
       <c r="E9">
-        <v>4937.8999999999996</v>
+        <f t="shared" si="0"/>
+        <v>4937.9000000000005</v>
       </c>
       <c r="F9" s="1">
         <v>44813</v>
@@ -1276,16 +1314,19 @@
         <v>44811</v>
       </c>
       <c r="H9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
       <c r="J9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4937.8999999999996</v>
+        <f t="shared" si="3"/>
+        <v>4937.9000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1293,15 +1334,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10">
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10">
         <v>73.7</v>
       </c>
       <c r="E10">
+        <f t="shared" si="0"/>
         <v>4901.05</v>
       </c>
       <c r="F10" s="1">
@@ -1311,15 +1354,18 @@
         <v>44812</v>
       </c>
       <c r="H10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10">
         <v>10</v>
       </c>
       <c r="J10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10">
+        <f t="shared" si="3"/>
         <v>4901.05</v>
       </c>
     </row>
@@ -1328,15 +1374,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11">
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11">
         <v>73.7</v>
       </c>
       <c r="E11">
+        <f t="shared" si="0"/>
         <v>4864.2</v>
       </c>
       <c r="F11" s="1">
@@ -1346,15 +1394,18 @@
         <v>44813</v>
       </c>
       <c r="H11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
+        <f t="shared" si="3"/>
         <v>4864.2</v>
       </c>
     </row>
@@ -1363,15 +1414,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12">
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12">
         <v>73.7</v>
       </c>
       <c r="E12">
+        <f t="shared" si="0"/>
         <v>4827.3500000000004</v>
       </c>
       <c r="F12" s="1">
@@ -1381,15 +1434,18 @@
         <v>44814</v>
       </c>
       <c r="H12">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
       <c r="J12">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12">
+        <f t="shared" si="3"/>
         <v>4837.3500000000004</v>
       </c>
     </row>
@@ -1398,15 +1454,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13">
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13">
         <v>73.7</v>
       </c>
       <c r="E13">
+        <f t="shared" si="0"/>
         <v>4790.5</v>
       </c>
       <c r="F13" s="1">
@@ -1416,15 +1474,18 @@
         <v>44815</v>
       </c>
       <c r="H13">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
       <c r="J13">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13">
+        <f t="shared" si="3"/>
         <v>4810.5</v>
       </c>
     </row>
@@ -1433,16 +1494,18 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14">
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14">
         <v>73.7</v>
       </c>
       <c r="E14">
-        <v>4753.6499999999996</v>
+        <f t="shared" si="0"/>
+        <v>4753.6500000000005</v>
       </c>
       <c r="F14" s="1">
         <v>44813</v>
@@ -1451,16 +1514,19 @@
         <v>44816</v>
       </c>
       <c r="H14">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
       <c r="J14">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14">
-        <v>4783.6499999999996</v>
+        <f t="shared" si="3"/>
+        <v>4783.6500000000005</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1468,15 +1534,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15">
         <v>73.7</v>
       </c>
       <c r="E15">
+        <f t="shared" si="0"/>
         <v>4716.8</v>
       </c>
       <c r="F15" s="1">
@@ -1486,15 +1554,18 @@
         <v>44817</v>
       </c>
       <c r="H15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
       <c r="J15">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15">
+        <f t="shared" si="3"/>
         <v>4756.8</v>
       </c>
     </row>
@@ -1503,15 +1574,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C16">
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16">
         <v>73.7</v>
       </c>
       <c r="E16">
+        <f t="shared" si="0"/>
         <v>4679.95</v>
       </c>
       <c r="F16" s="1">
@@ -1521,15 +1594,18 @@
         <v>44818</v>
       </c>
       <c r="H16">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16">
         <v>10</v>
       </c>
       <c r="J16">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16">
+        <f t="shared" si="3"/>
         <v>4729.95</v>
       </c>
     </row>
@@ -1538,15 +1614,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C17">
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17">
         <v>73.7</v>
       </c>
       <c r="E17">
+        <f t="shared" si="0"/>
         <v>4643.1000000000004</v>
       </c>
       <c r="F17" s="1">
@@ -1556,15 +1634,18 @@
         <v>44819</v>
       </c>
       <c r="H17">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17">
         <v>10</v>
       </c>
       <c r="J17">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17">
+        <f t="shared" si="3"/>
         <v>4703.1000000000004</v>
       </c>
     </row>
@@ -1573,15 +1654,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C18">
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18">
         <v>73.7</v>
       </c>
       <c r="E18">
+        <f t="shared" si="0"/>
         <v>4606.25</v>
       </c>
       <c r="F18" s="1">
@@ -1591,15 +1674,18 @@
         <v>44820</v>
       </c>
       <c r="H18">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
       <c r="J18">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18">
+        <f t="shared" si="3"/>
         <v>4676.25</v>
       </c>
     </row>
@@ -1608,16 +1694,18 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C19">
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19">
         <v>73.7</v>
       </c>
       <c r="E19">
-        <v>4569.3999999999996</v>
+        <f t="shared" si="0"/>
+        <v>4569.4000000000005</v>
       </c>
       <c r="F19" s="1">
         <v>44813</v>
@@ -1626,16 +1714,19 @@
         <v>44821</v>
       </c>
       <c r="H19">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19">
-        <v>4649.3999999999996</v>
+        <f t="shared" si="3"/>
+        <v>4649.4000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1643,15 +1734,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C20">
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20">
         <v>73.7</v>
       </c>
       <c r="E20">
+        <f t="shared" si="0"/>
         <v>4532.55</v>
       </c>
       <c r="F20" s="1">
@@ -1661,15 +1754,18 @@
         <v>44822</v>
       </c>
       <c r="H20">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20">
+        <f t="shared" si="3"/>
         <v>4622.55</v>
       </c>
     </row>
@@ -1678,15 +1774,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C21">
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21">
         <v>73.7</v>
       </c>
       <c r="E21">
+        <f t="shared" si="0"/>
         <v>4495.7</v>
       </c>
       <c r="F21" s="1">
@@ -1696,15 +1794,18 @@
         <v>44823</v>
       </c>
       <c r="H21">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21">
         <v>10</v>
       </c>
       <c r="J21">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21">
+        <f t="shared" si="3"/>
         <v>4595.7</v>
       </c>
     </row>
@@ -1713,15 +1814,17 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C22">
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22">
         <v>73.7</v>
       </c>
       <c r="E22">
+        <f t="shared" si="0"/>
         <v>4458.8500000000004</v>
       </c>
       <c r="F22" s="1">
@@ -1731,15 +1834,18 @@
         <v>44824</v>
       </c>
       <c r="H22">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22">
+        <f t="shared" si="3"/>
         <v>4568.8500000000004</v>
       </c>
     </row>
@@ -1748,15 +1854,17 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C23">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23">
         <v>73.7</v>
       </c>
       <c r="E23">
+        <f t="shared" si="0"/>
         <v>4422</v>
       </c>
       <c r="F23" s="1">
@@ -1766,15 +1874,18 @@
         <v>44825</v>
       </c>
       <c r="H23">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23">
         <v>10</v>
       </c>
       <c r="J23">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23">
+        <f t="shared" si="3"/>
         <v>4542</v>
       </c>
     </row>
@@ -1783,16 +1894,18 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C24">
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24">
         <v>73.7</v>
       </c>
       <c r="E24">
-        <v>4385.1499999999996</v>
+        <f t="shared" si="0"/>
+        <v>4385.1500000000005</v>
       </c>
       <c r="F24" s="1">
         <v>44813</v>
@@ -1801,16 +1914,19 @@
         <v>44826</v>
       </c>
       <c r="H24">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24">
         <v>10</v>
       </c>
       <c r="J24">
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24">
-        <v>4515.1499999999996</v>
+        <f t="shared" si="3"/>
+        <v>4515.1500000000005</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1818,15 +1934,17 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C25">
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25">
         <v>73.7</v>
       </c>
       <c r="E25">
+        <f t="shared" si="0"/>
         <v>4348.3</v>
       </c>
       <c r="F25" s="1">
@@ -1836,15 +1954,18 @@
         <v>44827</v>
       </c>
       <c r="H25">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25">
         <v>10</v>
       </c>
       <c r="J25">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25">
+        <f t="shared" si="3"/>
         <v>4488.3</v>
       </c>
     </row>
@@ -1853,15 +1974,17 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C26">
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26">
         <v>73.7</v>
       </c>
       <c r="E26">
+        <f t="shared" si="0"/>
         <v>4311.45</v>
       </c>
       <c r="F26" s="1">
@@ -1871,15 +1994,18 @@
         <v>44828</v>
       </c>
       <c r="H26">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26">
+        <f t="shared" si="3"/>
         <v>4461.45</v>
       </c>
     </row>
@@ -1888,15 +2014,17 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C27">
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27">
         <v>73.7</v>
       </c>
       <c r="E27">
+        <f t="shared" si="0"/>
         <v>4274.6000000000004</v>
       </c>
       <c r="F27" s="1">
@@ -1906,15 +2034,18 @@
         <v>44829</v>
       </c>
       <c r="H27">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27">
         <v>10</v>
       </c>
       <c r="J27">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27">
+        <f t="shared" si="3"/>
         <v>4434.6000000000004</v>
       </c>
     </row>
@@ -1923,15 +2054,17 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C28">
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28">
         <v>73.7</v>
       </c>
       <c r="E28">
+        <f t="shared" si="0"/>
         <v>4237.75</v>
       </c>
       <c r="F28" s="1">
@@ -1941,15 +2074,18 @@
         <v>44830</v>
       </c>
       <c r="H28">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28">
         <v>10</v>
       </c>
       <c r="J28">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28">
+        <f t="shared" si="3"/>
         <v>4407.75</v>
       </c>
     </row>
@@ -1958,16 +2094,18 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C29">
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29">
         <v>73.7</v>
       </c>
       <c r="E29">
-        <v>4200.8999999999996</v>
+        <f t="shared" si="0"/>
+        <v>4200.9000000000005</v>
       </c>
       <c r="F29" s="1">
         <v>44813</v>
@@ -1976,16 +2114,19 @@
         <v>44831</v>
       </c>
       <c r="H29">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29">
-        <v>4380.8999999999996</v>
+        <f t="shared" si="3"/>
+        <v>4380.9000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1993,15 +2134,17 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C30">
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30">
         <v>73.7</v>
       </c>
       <c r="E30">
+        <f t="shared" si="0"/>
         <v>4164.05</v>
       </c>
       <c r="F30" s="1">
@@ -2011,15 +2154,18 @@
         <v>44832</v>
       </c>
       <c r="H30">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30">
         <v>10</v>
       </c>
       <c r="J30">
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30">
+        <f t="shared" si="3"/>
         <v>4354.05</v>
       </c>
     </row>
@@ -2028,15 +2174,17 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C31">
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31">
         <v>73.7</v>
       </c>
       <c r="E31">
+        <f t="shared" si="0"/>
         <v>4127.2</v>
       </c>
       <c r="F31" s="1">
@@ -2046,15 +2194,18 @@
         <v>44833</v>
       </c>
       <c r="H31">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31">
         <v>10</v>
       </c>
       <c r="J31">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31">
+        <f t="shared" si="3"/>
         <v>4327.2</v>
       </c>
     </row>
@@ -2063,16 +2214,18 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C32">
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32">
         <v>73.7</v>
       </c>
       <c r="E32">
-        <v>4090.35</v>
+        <f t="shared" si="0"/>
+        <v>4090.3500000000004</v>
       </c>
       <c r="F32" s="1">
         <v>44813</v>
@@ -2081,15 +2234,18 @@
         <v>44834</v>
       </c>
       <c r="H32">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32">
         <v>10</v>
       </c>
       <c r="J32">
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32">
+        <f t="shared" si="3"/>
         <v>4300.3500000000004</v>
       </c>
     </row>
@@ -2098,15 +2254,17 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C33">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33">
         <v>73.7</v>
       </c>
       <c r="E33">
+        <f t="shared" si="0"/>
         <v>4053.5</v>
       </c>
       <c r="F33" s="1">
@@ -2116,15 +2274,18 @@
         <v>44835</v>
       </c>
       <c r="H33">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33">
+        <f t="shared" si="3"/>
         <v>4273.5</v>
       </c>
     </row>
@@ -2133,15 +2294,17 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C34">
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34">
         <v>73.7</v>
       </c>
       <c r="E34">
+        <f t="shared" si="0"/>
         <v>4016.65</v>
       </c>
       <c r="F34" s="1">
@@ -2151,15 +2314,18 @@
         <v>44836</v>
       </c>
       <c r="H34">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34">
         <v>10</v>
       </c>
       <c r="J34">
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34">
+        <f t="shared" si="3"/>
         <v>4246.6499999999996</v>
       </c>
     </row>
@@ -2168,15 +2334,17 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C35">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35">
         <v>36.85</v>
       </c>
       <c r="E35">
+        <f t="shared" si="0"/>
         <v>1989.9</v>
       </c>
       <c r="F35" s="1">
@@ -2186,15 +2354,18 @@
         <v>44837</v>
       </c>
       <c r="H35">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35">
         <v>10</v>
       </c>
       <c r="J35">
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35">
+        <f t="shared" si="3"/>
         <v>2229.9</v>
       </c>
     </row>
@@ -2203,16 +2374,18 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C36">
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36">
         <v>36.85</v>
       </c>
       <c r="E36">
-        <v>1971.4749999999999</v>
+        <f t="shared" si="0"/>
+        <v>1971.4750000000001</v>
       </c>
       <c r="F36" s="1">
         <v>44813</v>
@@ -2221,16 +2394,19 @@
         <v>44838</v>
       </c>
       <c r="H36">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
       <c r="J36">
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <v>2221.4749999999999</v>
+        <f t="shared" si="3"/>
+        <v>2221.4750000000004</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2238,16 +2414,18 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C37">
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37">
         <v>36.85</v>
       </c>
       <c r="E37">
-        <v>1953.05</v>
+        <f t="shared" si="0"/>
+        <v>1953.0500000000002</v>
       </c>
       <c r="F37" s="1">
         <v>44813</v>
@@ -2256,15 +2434,18 @@
         <v>44839</v>
       </c>
       <c r="H37">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37">
         <v>10</v>
       </c>
       <c r="J37">
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37">
+        <f t="shared" si="3"/>
         <v>2213.0500000000002</v>
       </c>
     </row>
@@ -2273,15 +2454,17 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C38">
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38">
         <v>36.85</v>
       </c>
       <c r="E38">
+        <f t="shared" si="0"/>
         <v>1934.625</v>
       </c>
       <c r="F38" s="1">
@@ -2291,47 +2474,54 @@
         <v>44840</v>
       </c>
       <c r="H38">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38">
         <v>10</v>
       </c>
       <c r="J38">
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38">
+        <f t="shared" si="3"/>
         <v>2204.625</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>158440</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>158439</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C41">
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C42">
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C43">
+        <f>MAX(K3:K38)</f>
         <v>5159</v>
       </c>
     </row>

--- a/LR3/table_1_67.xlsx
+++ b/LR3/table_1_67.xlsx
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -673,11 +673,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>$A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>73.7</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E37" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E37" si="1">C4*D4</f>
         <v>5122.1500000000005</v>
       </c>
       <c r="F4" s="2">
@@ -689,7 +689,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -697,33 +697,33 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>5122.1500000000005</v>
       </c>
       <c r="L4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D4:D34" si="6">$A$1*1.1</f>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5085.3</v>
       </c>
       <c r="F5" s="2">
@@ -735,7 +735,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -743,33 +743,33 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5085.3</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5048.45</v>
       </c>
       <c r="F6" s="2">
@@ -781,7 +781,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -789,33 +789,33 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5048.45</v>
       </c>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5011.6000000000004</v>
       </c>
       <c r="F7" s="2">
@@ -827,7 +827,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -835,33 +835,33 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5011.6000000000004</v>
       </c>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4974.75</v>
       </c>
       <c r="F8" s="2">
@@ -873,7 +873,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -881,33 +881,33 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4974.75</v>
       </c>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4937.9000000000005</v>
       </c>
       <c r="F9" s="2">
@@ -919,7 +919,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -927,33 +927,33 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4937.9000000000005</v>
       </c>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4901.05</v>
       </c>
       <c r="F10" s="2">
@@ -965,7 +965,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -973,33 +973,33 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4901.05</v>
       </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4864.2</v>
       </c>
       <c r="F11" s="2">
@@ -1011,7 +1011,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1019,33 +1019,33 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4864.2</v>
       </c>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4827.3500000000004</v>
       </c>
       <c r="F12" s="2">
@@ -1057,7 +1057,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1065,33 +1065,33 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4837.3500000000004</v>
       </c>
       <c r="L12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4790.5</v>
       </c>
       <c r="F13" s="2">
@@ -1103,7 +1103,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1111,33 +1111,33 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4810.5</v>
       </c>
       <c r="L13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4753.6500000000005</v>
       </c>
       <c r="F14" s="2">
@@ -1149,7 +1149,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1157,33 +1157,33 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4783.6500000000005</v>
       </c>
       <c r="L14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4716.8</v>
       </c>
       <c r="F15" s="2">
@@ -1195,7 +1195,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1203,33 +1203,33 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4756.8</v>
       </c>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4679.95</v>
       </c>
       <c r="F16" s="2">
@@ -1241,7 +1241,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1249,33 +1249,33 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4729.95</v>
       </c>
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4643.1000000000004</v>
       </c>
       <c r="F17" s="2">
@@ -1287,7 +1287,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1295,33 +1295,33 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4703.1000000000004</v>
       </c>
       <c r="L17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4606.25</v>
       </c>
       <c r="F18" s="2">
@@ -1333,7 +1333,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1341,33 +1341,33 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4676.25</v>
       </c>
       <c r="L18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4569.4000000000005</v>
       </c>
       <c r="F19" s="2">
@@ -1379,7 +1379,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1387,33 +1387,33 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4649.4000000000005</v>
       </c>
       <c r="L19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4532.55</v>
       </c>
       <c r="F20" s="2">
@@ -1425,7 +1425,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1433,33 +1433,33 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4622.55</v>
       </c>
       <c r="L20"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4495.7</v>
       </c>
       <c r="F21" s="2">
@@ -1471,7 +1471,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1479,33 +1479,33 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4595.7</v>
       </c>
       <c r="L21"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4458.8500000000004</v>
       </c>
       <c r="F22" s="2">
@@ -1517,7 +1517,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1525,33 +1525,33 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4568.8500000000004</v>
       </c>
       <c r="L22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4422</v>
       </c>
       <c r="F23" s="2">
@@ -1563,7 +1563,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1571,33 +1571,33 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4542</v>
       </c>
       <c r="L23"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4385.1500000000005</v>
       </c>
       <c r="F24" s="2">
@@ -1609,7 +1609,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1617,33 +1617,33 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4515.1500000000005</v>
       </c>
       <c r="L24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4348.3</v>
       </c>
       <c r="F25" s="2">
@@ -1655,7 +1655,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1663,33 +1663,33 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4488.3</v>
       </c>
       <c r="L25"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4311.45</v>
       </c>
       <c r="F26" s="2">
@@ -1701,7 +1701,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1709,33 +1709,33 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4461.45</v>
       </c>
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4274.6000000000004</v>
       </c>
       <c r="F27" s="2">
@@ -1747,7 +1747,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1755,33 +1755,33 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4434.6000000000004</v>
       </c>
       <c r="L27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4237.75</v>
       </c>
       <c r="F28" s="2">
@@ -1793,7 +1793,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1801,33 +1801,33 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4407.75</v>
       </c>
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4200.9000000000005</v>
       </c>
       <c r="F29" s="2">
@@ -1839,7 +1839,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1847,33 +1847,33 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4380.9000000000005</v>
       </c>
       <c r="L29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4164.05</v>
       </c>
       <c r="F30" s="2">
@@ -1885,7 +1885,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1893,33 +1893,33 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4354.05</v>
       </c>
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4127.2</v>
       </c>
       <c r="F31" s="2">
@@ -1931,7 +1931,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1939,33 +1939,33 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4327.2</v>
       </c>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4090.3500000000004</v>
       </c>
       <c r="F32" s="2">
@@ -1977,7 +1977,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1985,33 +1985,33 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4300.3500000000004</v>
       </c>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4053.5</v>
       </c>
       <c r="F33" s="2">
@@ -2023,7 +2023,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -2031,33 +2031,33 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4273.5</v>
       </c>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4016.65</v>
       </c>
       <c r="F34" s="2">
@@ -2069,7 +2069,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2077,33 +2077,33 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4246.6499999999996</v>
       </c>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>(A1*1.1)/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>36.85</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="1"/>
         <v>1989.9</v>
       </c>
       <c r="F35" s="2">
@@ -2115,7 +2115,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2123,33 +2123,33 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2229.9</v>
       </c>
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>(A1*1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>36.85</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1971.4750000000001</v>
       </c>
       <c r="F36" s="2">
@@ -2161,7 +2161,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2169,33 +2169,33 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2221.4750000000004</v>
       </c>
       <c r="L36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>(A1*1.1)/2</f>
+        <f t="shared" si="10"/>
         <v>36.85</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1953.0500000000002</v>
       </c>
       <c r="F37" s="2">
@@ -2207,7 +2207,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2215,29 +2215,29 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2213.0500000000002</v>
       </c>
       <c r="L37"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>(A1*1.1)/2</f>
+        <f t="shared" si="10"/>
         <v>36.85</v>
       </c>
       <c r="E38" s="1">
@@ -2253,7 +2253,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2261,11 +2261,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2204.625</v>
       </c>
       <c r="L38"/>
